--- a/VB03_TA_GROUP_DON_DAT_HANG/SQL_QUERIES.xlsx
+++ b/VB03_TA_GROUP_DON_DAT_HANG/SQL_QUERIES.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\GITHUB\VBA_MINI_PROJECTS\VB03_TA_GROUP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\GITHUB\VBA_MINI_PROJECTS\VB03_TA_GROUP_DON_DAT_HANG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,40 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <r>
-      <t xml:space="preserve">USE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TBD_2024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Database name  ******/
-GO
-CREATE TABLE TB_TEST_DON_DAT_HANG /****** Table name  ******/
-(
-    MA_KHACH_HANG Varchar(50),
-    TEN_KHACH_HANG nVarchar(200),
-    MST_CHINH Varchar(10),
-)</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <r>
       <t xml:space="preserve">USE </t>
@@ -95,7 +62,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>TB_DON_DAT_HANG</t>
+      <t>TB_DANH_MUC_KHACH_HANG</t>
     </r>
     <r>
       <rPr>
@@ -149,115 +116,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>TB_DANH_MUC_KHACH_HANG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Table name  ******/
-(
-    MA_KHACH_HANG Varchar(50),
-    TEN_KHACH_HANG nVarchar(200),
-    MST_CHINH Varchar(10),
-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">USE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TBD_2024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Database name  ******/
-GO
-CREATE TABLE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>TB_DANH_MUC_NCC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Table name  ******/
-(
-    MA_KHACH_HANG Varchar(50),
-    TEN_KHACH_HANG nVarchar(200),
-    MST_CHINH Varchar(10),
-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">USE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TBD_2024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Database name  ******/
-GO
-CREATE TABLE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TB_DANH_MUC_HANG_HOA</t>
     </r>
     <r>
       <rPr>
@@ -481,7 +340,76 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>TB_DON_DAT_HANG</t>
+      <t>TB_VT01_DON_DAT_HANG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Table name  ******/
+(
+    STT_DONG INT,
+    MA_NV Varchar(50),
+    TEN_NV nVarchar(200),
+    SO_DON_DAT_HANG Varchar(50),
+    SO_PHIEU_YEU_CAU Varchar(50),
+    MA_NCC Varchar(50),
+    TEN_NCC nVarchar(200),
+    MA_SP Varchar(50),
+    TEN_SP nVarchar(500),
+    NHU_CAU Decimal(15,2),
+    DIA_DIEM_NHAN_HANG nVarchar(500),
+    NGAY_NHAN_HANG datetime,
+    GHI_CHU nVarchar(500),
+    MA_THANH_VIEN Varchar(10),
+    TEN_THANH_VIEN nVarchar(200),
+    XOA_SUA Varchar(10),
+    NGAY_TAO_PHIEU datetime,
+    MA_USER_THUC_HIEN Varchar(10),
+)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TBD_2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Database name  ******/
+GO
+CREATE TABLE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TB_TEST_DON_DAT_HANG</t>
     </r>
     <r>
       <rPr>
@@ -496,7 +424,6 @@
     MA_KHACH_HANG Varchar(50),
     TEN_KHACH_HANG nVarchar(200),
     MST_CHINH Varchar(10),
-    NGAY_KHOI_TAO datetime,
 )</t>
     </r>
   </si>
@@ -505,7 +432,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,13 +448,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -539,10 +487,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -550,8 +500,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Accent2" xfId="1" builtinId="33"/>
+    <cellStyle name="Accent5" xfId="2" builtinId="45"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -831,10 +785,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,30 +796,23 @@
     <col min="1" max="1" width="116.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="123.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:1" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -875,10 +822,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,25 +836,79 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" ht="352.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" ht="142.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VB03_TA_GROUP_DON_DAT_HANG/SQL_QUERIES.xlsx
+++ b/VB03_TA_GROUP_DON_DAT_HANG/SQL_QUERIES.xlsx
@@ -317,6 +317,60 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>TBD_2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Database name  ******/
+GO
+CREATE TABLE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TB_TEST_DON_DAT_HANG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Table name  ******/
+(
+    MA_KHACH_HANG Varchar(50),
+    TEN_KHACH_HANG nVarchar(200),
+    MST_CHINH Varchar(10),
+)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>MUTUAL_2024</t>
     </r>
     <r>
@@ -370,60 +424,9 @@
     XOA_SUA Varchar(10),
     NGAY_TAO_PHIEU datetime,
     MA_USER_THUC_HIEN Varchar(10),
-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">USE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TBD_2024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Database name  ******/
-GO
-CREATE TABLE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TB_TEST_DON_DAT_HANG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Table name  ******/
-(
-    MA_KHACH_HANG Varchar(50),
-    TEN_KHACH_HANG nVarchar(200),
-    MST_CHINH Varchar(10),
+    DVT nVarchar(50),
+    XUAT_XU Varchar(10),
+    SET_LOCKED Varchar(10),
 )</t>
     </r>
   </si>
@@ -788,7 +791,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,7 +801,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="127.5" x14ac:dyDescent="0.25">
@@ -824,8 +827,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,9 +853,9 @@
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" ht="352.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="397.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1"/>
     </row>

--- a/VB03_TA_GROUP_DON_DAT_HANG/SQL_QUERIES.xlsx
+++ b/VB03_TA_GROUP_DON_DAT_HANG/SQL_QUERIES.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="DATABASE_THANH_VIEN" sheetId="1" r:id="rId1"/>
+    <sheet name="TBD_2024" sheetId="1" r:id="rId1"/>
     <sheet name="MUTUAL_2024" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <r>
       <t xml:space="preserve">USE </t>
@@ -372,6 +372,78 @@
         <scheme val="minor"/>
       </rPr>
       <t>MUTUAL_2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Database name  ******/
+GO
+CREATE TABLE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TB_VT01_DON_DAT_HANG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Table name  ******/
+(
+    STT_DONG INT,
+    MA_NV Varchar(50),
+    TEN_NV nVarchar(200),
+    SO_DON_DAT_HANG Varchar(50),
+    SO_PHIEU_YEU_CAU Varchar(50),
+    MA_NCC Varchar(50),
+    TEN_NCC nVarchar(200),
+    MA_SP Varchar(50),
+    TEN_SP nVarchar(500),
+    NHU_CAU Decimal(15,2),
+    DIA_DIEM_NHAN_HANG nVarchar(500),
+    NGAY_NHAN_HANG datetime,
+    GHI_CHU nVarchar(500),
+    MA_THANH_VIEN Varchar(10),
+    TEN_THANH_VIEN nVarchar(200),
+    XOA_SUA Varchar(10),
+    NGAY_TAO_PHIEU datetime,
+    MA_USER_THUC_HIEN Varchar(10),
+    DVT nVarchar(50),
+    XUAT_XU Varchar(10),
+    SET_LOCKED Varchar(10),
+)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TBD_2024</t>
     </r>
     <r>
       <rPr>
@@ -790,8 +862,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,8 +886,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:1" ht="397.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -827,8 +901,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/VB03_TA_GROUP_DON_DAT_HANG/SQL_QUERIES.xlsx
+++ b/VB03_TA_GROUP_DON_DAT_HANG/SQL_QUERIES.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="TBD_2024" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <r>
       <t xml:space="preserve">USE </t>
@@ -359,52 +359,9 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">USE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MUTUAL_2024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Database name  ******/
+    <t>USE TBD_2024 /****** Database name  ******/
 GO
-CREATE TABLE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TB_VT01_DON_DAT_HANG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Table name  ******/
+CREATE TABLE TB_VT01_DON_DAT_HANG /****** Table name  ******/
 (
     STT_DONG INT,
     MA_NV Varchar(50),
@@ -427,80 +384,19 @@
     DVT nVarchar(50),
     XUAT_XU Varchar(10),
     SET_LOCKED Varchar(10),
+    NGAY_CAN_XAC_NHAN datetime,
+    XAC_NHAN_CUA_NHA_CUNG_CAP bit,
+    NGAY_XAC_NHAN datetime,
+    CHUNG_NHAN_XUAT_XU bit,
+    CHUNG_NHAN_BAO_HANH bit,
+    BB_THU_NGHIEM bit,
+    HD_THUE_GTGT bit,
+    HD_TRUC_TIEP bit,
+    THANH_TOAN_BANG_CHUYEN_KHOAN bit,
+    THANH_TOAN_NGAY bit,
+    THANH_TOAN_CHAM bit,
+    GHI_CHU_THANH_TOAN_CHAM nVarchar(100),
 )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">USE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TBD_2024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Database name  ******/
-GO
-CREATE TABLE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TB_VT01_DON_DAT_HANG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Table name  ******/
-(
-    STT_DONG INT,
-    MA_NV Varchar(50),
-    TEN_NV nVarchar(200),
-    SO_DON_DAT_HANG Varchar(50),
-    SO_PHIEU_YEU_CAU Varchar(50),
-    MA_NCC Varchar(50),
-    TEN_NCC nVarchar(200),
-    MA_SP Varchar(50),
-    TEN_SP nVarchar(500),
-    NHU_CAU Decimal(15,2),
-    DIA_DIEM_NHAN_HANG nVarchar(500),
-    NGAY_NHAN_HANG datetime,
-    GHI_CHU nVarchar(500),
-    MA_THANH_VIEN Varchar(10),
-    TEN_THANH_VIEN nVarchar(200),
-    XOA_SUA Varchar(10),
-    NGAY_TAO_PHIEU datetime,
-    MA_USER_THUC_HIEN Varchar(10),
-    DVT nVarchar(50),
-    XUAT_XU Varchar(10),
-    SET_LOCKED Varchar(10),
-)</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -862,7 +758,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -871,24 +767,24 @@
     <col min="1" max="1" width="116.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="397.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -901,8 +797,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,10 +823,8 @@
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" ht="397.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">

--- a/VB03_TA_GROUP_DON_DAT_HANG/SQL_QUERIES.xlsx
+++ b/VB03_TA_GROUP_DON_DAT_HANG/SQL_QUERIES.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <r>
       <t xml:space="preserve">USE </t>
@@ -63,60 +63,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>TB_DANH_MUC_KHACH_HANG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Table name  ******/
-(
-    MA_KHACH_HANG Varchar(50),
-    TEN_KHACH_HANG nVarchar(200),
-    MST_CHINH Varchar(10),
-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">USE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TBD_2024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Database name  ******/
-GO
-CREATE TABLE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TB_DANH_MUC_NCC</t>
     </r>
     <r>
       <rPr>
@@ -359,9 +305,52 @@
     </r>
   </si>
   <si>
-    <t>USE TBD_2024 /****** Database name  ******/
+    <r>
+      <t xml:space="preserve">USE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TBD_2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Database name  ******/
 GO
-CREATE TABLE TB_VT01_DON_DAT_HANG /****** Table name  ******/
+CREATE TABLE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TB_VT01_DON_DAT_HANG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Table name  ******/
 (
     STT_DONG INT,
     MA_NV Varchar(50),
@@ -397,13 +386,129 @@
     THANH_TOAN_CHAM bit,
     GHI_CHU_THANH_TOAN_CHAM nVarchar(100),
 )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TBD_2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Database name  ******/
+GO
+CREATE TABLE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TB_DANH_MUC_HANG_HOA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Table name  ******/
+(
+    MA_HANG Varchar(50),
+    TEN_HANG nVarchar(500),
+    DVT nVarchar(50),
+    XUAT_XU Varchar(10),
+    DON_GIA Decimal(15,2),
+    THUE_SUAT_VAT Decimal(3,2),
+)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TBD_2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Database name  ******/
+GO
+CREATE TABLE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TB_DANH_MUC_NCC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Table name  ******/
+(
+    MA_KHACH_HANG Varchar(50),
+    TEN_KHACH_HANG nVarchar(200),
+    MA_SO_THUE Varchar(13),
+)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,6 +534,13 @@
       <sz val="14"/>
       <name val="Times New Roman"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -458,12 +570,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -473,10 +586,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Accent2" xfId="1" builtinId="33"/>
     <cellStyle name="Accent5" xfId="2" builtinId="45"/>
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -756,36 +871,51 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="116.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="172.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -798,7 +928,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,17 +939,17 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1"/>
     </row>

--- a/VB03_TA_GROUP_DON_DAT_HANG/SQL_QUERIES.xlsx
+++ b/VB03_TA_GROUP_DON_DAT_HANG/SQL_QUERIES.xlsx
@@ -506,7 +506,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -586,7 +586,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent2" xfId="1" builtinId="33"/>
@@ -873,8 +873,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,7 +928,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/VB03_TA_GROUP_DON_DAT_HANG/SQL_QUERIES.xlsx
+++ b/VB03_TA_GROUP_DON_DAT_HANG/SQL_QUERIES.xlsx
@@ -493,8 +493,8 @@
       </rPr>
       <t xml:space="preserve"> /****** Table name  ******/
 (
-    MA_KHACH_HANG Varchar(50),
-    TEN_KHACH_HANG nVarchar(200),
+    MA_NCC Varchar(50),
+    TEN_NCC nVarchar(200),
     MA_SO_THUE Varchar(13),
 )</t>
     </r>
@@ -874,7 +874,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,7 +928,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/VB03_TA_GROUP_DON_DAT_HANG/SQL_QUERIES.xlsx
+++ b/VB03_TA_GROUP_DON_DAT_HANG/SQL_QUERIES.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TBD_2024" sheetId="1" r:id="rId1"/>
-    <sheet name="MUTUAL_2024" sheetId="2" r:id="rId2"/>
+    <sheet name="LA_2024" sheetId="3" r:id="rId2"/>
+    <sheet name="MUTUAL_2024" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <r>
       <t xml:space="preserve">USE </t>
@@ -497,6 +498,76 @@
     TEN_NCC nVarchar(200),
     MA_SO_THUE Varchar(13),
 )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LA_2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;
+GO
+CREATE VIEW </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[VIEW_VT01_DON_DAT_HANG]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AS
+SELECT * FROM [HA_NOI_2024].dbo.[TB_VT01_DON_DAT_HANG] where [SO_DON_DAT_HANG] &lt;&gt; ''
+UNION ALL
+SELECT * FROM [MIEN_BAC_2024].dbo.[TB_VT01_DON_DAT_HANG] where [SO_DON_DAT_HANG] &lt;&gt; ''
+UNION ALL
+SELECT * FROM [NINH_BINH_2024].dbo.[TB_VT01_DON_DAT_HANG] where [SO_DON_DAT_HANG] &lt;&gt; ''
+UNION ALL
+SELECT * FROM [NGHE_AN_2024].dbo.[TB_VT01_DON_DAT_HANG] where [SO_DON_DAT_HANG] &lt;&gt; ''
+UNION ALL
+SELECT * FROM [DA_NANG_2024].dbo.[TB_VT01_DON_DAT_HANG] where [SO_DON_DAT_HANG] &lt;&gt; ''
+UNION ALL
+SELECT * FROM [KHANH_HOA_2024].dbo.[TB_VT01_DON_DAT_HANG] where [SO_DON_DAT_HANG] &lt;&gt; ''
+UNION ALL
+SELECT * FROM [TBD_2024].dbo.[TB_VT01_DON_DAT_HANG] where [SO_DON_DAT_HANG] &lt;&gt; ''
+UNION ALL
+SELECT * FROM [POLY_2024].dbo.[TB_VT01_DON_DAT_HANG] where [SO_DON_DAT_HANG] &lt;&gt; ''
+UNION ALL
+SELECT * FROM [DONG_NAI_2024].dbo.[TB_VT01_DON_DAT_HANG] where [SO_DON_DAT_HANG] &lt;&gt; ''
+UNION ALL
+SELECT * FROM [MIEN_TAY_2024].dbo.[TB_VT01_DON_DAT_HANG] where [SO_DON_DAT_HANG] &lt;&gt; ''
+UNION ALL
+SELECT * FROM [TVTK_2024].dbo.[TB_VT01_DON_DAT_HANG] where [SO_DON_DAT_HANG] &lt;&gt; '';</t>
     </r>
   </si>
 </sst>
@@ -873,8 +944,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,6 +994,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="114.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="367.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B22"/>

--- a/VB03_TA_GROUP_DON_DAT_HANG/SQL_QUERIES.xlsx
+++ b/VB03_TA_GROUP_DON_DAT_HANG/SQL_QUERIES.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <r>
       <t xml:space="preserve">USE </t>
@@ -303,6 +303,187 @@
     TEN_KHACH_HANG nVarchar(200),
     MST_CHINH Varchar(10),
 )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TBD_2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Database name  ******/
+GO
+CREATE TABLE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TB_DANH_MUC_HANG_HOA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Table name  ******/
+(
+    MA_HANG Varchar(50),
+    TEN_HANG nVarchar(500),
+    DVT nVarchar(50),
+    XUAT_XU Varchar(10),
+    DON_GIA Decimal(15,2),
+    THUE_SUAT_VAT Decimal(3,2),
+)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TBD_2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Database name  ******/
+GO
+CREATE TABLE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TB_DANH_MUC_NCC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Table name  ******/
+(
+    MA_NCC Varchar(50),
+    TEN_NCC nVarchar(200),
+    MA_SO_THUE Varchar(13),
+)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LA_2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;
+GO
+CREATE VIEW </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[VIEW_VT01_DON_DAT_HANG]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AS
+SELECT * FROM [HA_NOI_2024].dbo.[TB_VT01_DON_DAT_HANG] where [SO_DON_DAT_HANG] &lt;&gt; ''
+UNION ALL
+SELECT * FROM [MIEN_BAC_2024].dbo.[TB_VT01_DON_DAT_HANG] where [SO_DON_DAT_HANG] &lt;&gt; ''
+UNION ALL
+SELECT * FROM [NINH_BINH_2024].dbo.[TB_VT01_DON_DAT_HANG] where [SO_DON_DAT_HANG] &lt;&gt; ''
+UNION ALL
+SELECT * FROM [NGHE_AN_2024].dbo.[TB_VT01_DON_DAT_HANG] where [SO_DON_DAT_HANG] &lt;&gt; ''
+UNION ALL
+SELECT * FROM [DA_NANG_2024].dbo.[TB_VT01_DON_DAT_HANG] where [SO_DON_DAT_HANG] &lt;&gt; ''
+UNION ALL
+SELECT * FROM [KHANH_HOA_2024].dbo.[TB_VT01_DON_DAT_HANG] where [SO_DON_DAT_HANG] &lt;&gt; ''
+UNION ALL
+SELECT * FROM [TBD_2024].dbo.[TB_VT01_DON_DAT_HANG] where [SO_DON_DAT_HANG] &lt;&gt; ''
+UNION ALL
+SELECT * FROM [POLY_2024].dbo.[TB_VT01_DON_DAT_HANG] where [SO_DON_DAT_HANG] &lt;&gt; ''
+UNION ALL
+SELECT * FROM [DONG_NAI_2024].dbo.[TB_VT01_DON_DAT_HANG] where [SO_DON_DAT_HANG] &lt;&gt; ''
+UNION ALL
+SELECT * FROM [MIEN_TAY_2024].dbo.[TB_VT01_DON_DAT_HANG] where [SO_DON_DAT_HANG] &lt;&gt; ''
+UNION ALL
+SELECT * FROM [TVTK_2024].dbo.[TB_VT01_DON_DAT_HANG] where [SO_DON_DAT_HANG] &lt;&gt; '';</t>
     </r>
   </si>
   <si>
@@ -386,6 +567,7 @@
     THANH_TOAN_NGAY bit,
     THANH_TOAN_CHAM bit,
     GHI_CHU_THANH_TOAN_CHAM nVarchar(100),
+    NGAY_HOAN_THANH_DU_KIEN datetime,
 )</t>
     </r>
   </si>
@@ -402,172 +584,40 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>TBD_2024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Database name  ******/
+      <t>LA_2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;
 GO
-CREATE TABLE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TB_DANH_MUC_HANG_HOA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Table name  ******/
-(
-    MA_HANG Varchar(50),
-    TEN_HANG nVarchar(500),
-    DVT nVarchar(50),
-    XUAT_XU Varchar(10),
-    DON_GIA Decimal(15,2),
-    THUE_SUAT_VAT Decimal(3,2),
-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">USE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TBD_2024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Database name  ******/
-GO
-CREATE TABLE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TB_DANH_MUC_NCC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Table name  ******/
-(
-    MA_NCC Varchar(50),
-    TEN_NCC nVarchar(200),
-    MA_SO_THUE Varchar(13),
-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">USE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LA_2024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">;
-GO
-CREATE VIEW </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[VIEW_VT01_DON_DAT_HANG]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> AS
-SELECT * FROM [HA_NOI_2024].dbo.[TB_VT01_DON_DAT_HANG] where [SO_DON_DAT_HANG] &lt;&gt; ''
-UNION ALL
-SELECT * FROM [MIEN_BAC_2024].dbo.[TB_VT01_DON_DAT_HANG] where [SO_DON_DAT_HANG] &lt;&gt; ''
-UNION ALL
-SELECT * FROM [NINH_BINH_2024].dbo.[TB_VT01_DON_DAT_HANG] where [SO_DON_DAT_HANG] &lt;&gt; ''
-UNION ALL
-SELECT * FROM [NGHE_AN_2024].dbo.[TB_VT01_DON_DAT_HANG] where [SO_DON_DAT_HANG] &lt;&gt; ''
-UNION ALL
-SELECT * FROM [DA_NANG_2024].dbo.[TB_VT01_DON_DAT_HANG] where [SO_DON_DAT_HANG] &lt;&gt; ''
-UNION ALL
-SELECT * FROM [KHANH_HOA_2024].dbo.[TB_VT01_DON_DAT_HANG] where [SO_DON_DAT_HANG] &lt;&gt; ''
-UNION ALL
-SELECT * FROM [TBD_2024].dbo.[TB_VT01_DON_DAT_HANG] where [SO_DON_DAT_HANG] &lt;&gt; ''
-UNION ALL
-SELECT * FROM [POLY_2024].dbo.[TB_VT01_DON_DAT_HANG] where [SO_DON_DAT_HANG] &lt;&gt; ''
-UNION ALL
-SELECT * FROM [DONG_NAI_2024].dbo.[TB_VT01_DON_DAT_HANG] where [SO_DON_DAT_HANG] &lt;&gt; ''
-UNION ALL
-SELECT * FROM [MIEN_TAY_2024].dbo.[TB_VT01_DON_DAT_HANG] where [SO_DON_DAT_HANG] &lt;&gt; ''
-UNION ALL
-SELECT * FROM [TVTK_2024].dbo.[TB_VT01_DON_DAT_HANG] where [SO_DON_DAT_HANG] &lt;&gt; '';</t>
+DROP VIEW [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VIEW_VT01_DON_DAT_HANG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
     </r>
   </si>
 </sst>
@@ -967,17 +1017,17 @@
     </row>
     <row r="3" spans="1:10" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="172.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -995,22 +1045,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="114.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="367.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="52.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="367.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1020,7 +1079,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/VB03_TA_GROUP_DON_DAT_HANG/SQL_QUERIES.xlsx
+++ b/VB03_TA_GROUP_DON_DAT_HANG/SQL_QUERIES.xlsx
@@ -484,6 +484,55 @@
 SELECT * FROM [MIEN_TAY_2024].dbo.[TB_VT01_DON_DAT_HANG] where [SO_DON_DAT_HANG] &lt;&gt; ''
 UNION ALL
 SELECT * FROM [TVTK_2024].dbo.[TB_VT01_DON_DAT_HANG] where [SO_DON_DAT_HANG] &lt;&gt; '';</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LA_2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;
+GO
+DROP VIEW [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VIEW_VT01_DON_DAT_HANG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
     </r>
   </si>
   <si>
@@ -567,57 +616,10 @@
     THANH_TOAN_NGAY bit,
     THANH_TOAN_CHAM bit,
     GHI_CHU_THANH_TOAN_CHAM nVarchar(100),
+    DON_GIA Decimal(15,2),
+    THUE_SUAT_VAT Decimal(3,2),
     NGAY_HOAN_THANH_DU_KIEN datetime,
 )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">USE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LA_2024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;
-GO
-DROP VIEW [</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>VIEW_VT01_DON_DAT_HANG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
     </r>
   </si>
 </sst>
@@ -1022,7 +1024,7 @@
     </row>
     <row r="4" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="172.5" x14ac:dyDescent="0.25">
@@ -1049,7 +1051,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,7 +1061,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="52.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="367.5" x14ac:dyDescent="0.25">
@@ -1079,7 +1081,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
